--- a/input_test/HMP2360_r0_t3_no_promiscuous2.xlsx
+++ b/input_test/HMP2360_r0_t3_no_promiscuous2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="141">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>fixed?</t>
+  </si>
+  <si>
+    <t>measured?</t>
   </si>
   <si>
     <t>Acetyl-coa</t>
@@ -601,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="F7 B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,7 +738,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,19 +748,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,7 +884,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -891,16 +894,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,7 +1107,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1114,16 +1117,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,55 +1427,55 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,13 +1483,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -1498,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1509,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>23</v>
@@ -1521,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,13 +1532,13 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>27</v>
@@ -1547,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,13 +1558,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1570,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,7 +1581,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>24</v>
@@ -1593,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,13 +1604,13 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>27</v>
@@ -1619,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,7 +1630,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1641,7 +1644,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1650,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,7 +1661,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1667,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1678,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1684,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1695,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1701,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,7 +1712,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1718,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1729,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1735,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1760,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="F7 G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2691,10 +2694,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2702,7 +2705,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -2717,6 +2720,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,7 +2730,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2734,6 +2740,9 @@
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2751,6 +2760,9 @@
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +2770,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2768,6 +2780,9 @@
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,7 +2790,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2785,6 +2800,9 @@
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,7 +2810,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2801,6 +2819,9 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2809,7 +2830,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2818,6 +2839,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2835,6 +2859,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2843,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2852,6 +2879,9 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2860,7 +2890,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2869,6 +2899,9 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2877,7 +2910,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2886,6 +2919,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2894,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2903,6 +2939,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2911,7 +2950,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2921,6 +2960,9 @@
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,7 +2970,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2938,6 +2980,9 @@
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,7 +2990,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2955,6 +3000,9 @@
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,7 +3010,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2972,6 +3020,9 @@
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,7 +3030,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2989,6 +3040,9 @@
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,7 +3050,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3006,6 +3060,9 @@
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,7 +3070,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3023,6 +3080,9 @@
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,7 +3090,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -3040,6 +3100,9 @@
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3047,7 +3110,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -3057,6 +3120,9 @@
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3144,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F7 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3091,16 +3157,16 @@
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,7 +3174,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3122,7 +3188,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3136,7 +3202,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3150,7 +3216,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3164,7 +3230,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3178,7 +3244,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3192,7 +3258,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3206,7 +3272,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3220,7 +3286,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3234,7 +3300,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3248,7 +3314,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3262,7 +3328,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3276,7 +3342,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3304,7 +3370,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3401,7 +3467,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3411,7 +3477,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,7 +3599,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3543,7 +3609,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,7 +3731,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="F7 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3675,13 +3741,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,7 +3912,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3856,13 +3922,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
